--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
@@ -543,7 +543,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H2">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,25 +561,25 @@
         <v>0.2303826666666667</v>
       </c>
       <c r="N2">
-        <v>0.6911480000000001</v>
+        <v>0.691148</v>
       </c>
       <c r="O2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="P2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="Q2">
-        <v>0.04452252545244446</v>
+        <v>0.04452252545244444</v>
       </c>
       <c r="R2">
-        <v>0.4007027290720001</v>
+        <v>0.4007027290719999</v>
       </c>
       <c r="S2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
       <c r="T2">
-        <v>0.01656831128637638</v>
+        <v>0.04658545143903391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H3">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.965799333333333</v>
+        <v>0.8771473333333333</v>
       </c>
       <c r="N3">
-        <v>8.897397999999999</v>
+        <v>2.631442</v>
       </c>
       <c r="O3">
-        <v>0.2132898593395084</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="P3">
-        <v>0.2132898593395085</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="Q3">
-        <v>0.5731545615635556</v>
+        <v>0.1695128155208889</v>
       </c>
       <c r="R3">
-        <v>5.158391054072</v>
+        <v>1.525615339688</v>
       </c>
       <c r="S3">
-        <v>0.2132898593395084</v>
+        <v>0.177367095767671</v>
       </c>
       <c r="T3">
-        <v>0.2132898593395085</v>
+        <v>0.177367095767671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H4">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4067293333333333</v>
+        <v>0.09376766666666668</v>
       </c>
       <c r="N4">
-        <v>1.220188</v>
+        <v>0.281303</v>
       </c>
       <c r="O4">
-        <v>0.02925054346088105</v>
+        <v>0.01896066724660212</v>
       </c>
       <c r="P4">
-        <v>0.02925054346088106</v>
+        <v>0.01896066724660211</v>
       </c>
       <c r="Q4">
-        <v>0.07860234173688889</v>
+        <v>0.01812103916577778</v>
       </c>
       <c r="R4">
-        <v>0.7074210756320001</v>
+        <v>0.163089352492</v>
       </c>
       <c r="S4">
-        <v>0.02925054346088105</v>
+        <v>0.01896066724660212</v>
       </c>
       <c r="T4">
-        <v>0.02925054346088106</v>
+        <v>0.01896066724660211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H5">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.685911333333333</v>
+        <v>2.620343</v>
       </c>
       <c r="N5">
-        <v>8.057734</v>
+        <v>7.861029</v>
       </c>
       <c r="O5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="P5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="Q5">
-        <v>0.5190648994195556</v>
+        <v>0.5063935130173334</v>
       </c>
       <c r="R5">
-        <v>4.671584094776001</v>
+        <v>4.557541617156</v>
       </c>
       <c r="S5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
       <c r="T5">
-        <v>0.1931612985566314</v>
+        <v>0.5298569694773585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H6">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616195333333334</v>
+        <v>1.123737333333333</v>
       </c>
       <c r="N6">
-        <v>22.848586</v>
+        <v>3.371212</v>
       </c>
       <c r="O6">
-        <v>0.5477299873566027</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="P6">
-        <v>0.5477299873566028</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="Q6">
-        <v>1.471865290411556</v>
+        <v>0.2171674837742222</v>
       </c>
       <c r="R6">
-        <v>13.246787613704</v>
+        <v>1.954507353968</v>
       </c>
       <c r="S6">
-        <v>0.5477299873566027</v>
+        <v>0.2272298160693345</v>
       </c>
       <c r="T6">
-        <v>0.5477299873566028</v>
+        <v>0.2272298160693345</v>
       </c>
     </row>
   </sheetData>
